--- a/Data/Processed/Angiosperms/missing_powo_ipni/Xyridaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Xyridaceae.xlsx
@@ -817,7 +817,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1891: 147. 1892 </t>
+          <t>Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1891: 147. 1892</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. New York Bot. Gard. 10(5): 34. 1964 </t>
+          <t>Mem. New York Bot. Gard. 10(5): 34. 1964</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 24(14): 61, pl. 6. 1892 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 24(14): 61, pl. 6. 1892</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1891: 144. 1892 </t>
+          <t>Vidensk. Meddel. Naturhist. Foren. Kjøbenhavn 1891: 144. 1892</t>
         </is>
       </c>
       <c r="J45" t="b">
